--- a/DataTest/Tiếp nhận/TC_04.xlsx
+++ b/DataTest/Tiếp nhận/TC_04.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Check" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Check" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -43,12 +49,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -76,12 +97,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -464,22 +488,22 @@
   <dimension ref="A1:BH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="10" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="10.21875" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="10.6640625" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="35.77734375" bestFit="1" customWidth="1" min="15" max="16"/>
-    <col width="52.77734375" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="13.21875" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="32.109375" bestFit="1" customWidth="1" min="47" max="47"/>
-    <col width="61.21875" bestFit="1" customWidth="1" min="53" max="53"/>
-    <col width="14.33203125" bestFit="1" customWidth="1" min="54" max="54"/>
-    <col width="231.33203125" bestFit="1" customWidth="1" min="58" max="58"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="35.7109375" bestFit="1" customWidth="1" min="15" max="16"/>
+    <col width="52.7109375" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="13.28515625" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="32.140625" bestFit="1" customWidth="1" min="47" max="47"/>
+    <col width="61.28515625" bestFit="1" customWidth="1" min="53" max="53"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="54" max="54"/>
+    <col width="231.28515625" bestFit="1" customWidth="1" min="58" max="58"/>
     <col width="22" bestFit="1" customWidth="1" min="59" max="59"/>
   </cols>
   <sheetData>
@@ -795,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>46200602605</v>
+        <v>46200608003</v>
       </c>
       <c r="F2" t="n">
         <v>356572156</v>
@@ -866,7 +890,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>DN4127460129104</t>
+          <t>DN4127460130003</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -976,32 +1000,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>FirstName</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>LastName</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>InsCardNo</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>CreateById</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>InsBenefitRatio</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>InsBenefitType</t>
         </is>
@@ -1012,7 +1036,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DN4127460129104</t>
+          <t>DN4127460130003</t>
         </is>
       </c>
       <c r="D2" t="n">
